--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -631,15 +631,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,6 +659,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,43 +1009,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1090,58 +1090,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1166,23 +1166,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1469,7 +1469,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2787,6 +2787,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2800,11 +2805,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2848,41 +2848,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2927,58 +2927,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3003,23 +3003,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3076,7 +3076,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3252,7 +3252,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4570,13 +4570,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4588,6 +4581,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4631,41 +4631,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4710,58 +4710,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4786,23 +4786,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4859,7 +4859,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5035,7 +5035,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6353,6 +6353,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6364,13 +6371,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6381,8 +6381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6414,43 +6414,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6495,58 +6495,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="61" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6571,49 +6571,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44245</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44245</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183038610023</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>68</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6625,26 +6653,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42">
+        <v>44245</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44245</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183035935985</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="K7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6673,7 +6727,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6702,7 +6756,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6731,7 +6785,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6760,7 +6814,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6789,7 +6843,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6820,7 +6874,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6849,7 +6903,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6878,7 +6932,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6907,7 +6961,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7026,7 +7080,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -7058,7 +7112,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -7367,7 +7421,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -7495,7 +7549,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -7559,7 +7613,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -7799,7 +7853,7 @@
       </c>
       <c r="V45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
@@ -8138,13 +8192,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8156,6 +8203,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
